--- a/Luban/Datas/FGUI/FGUIType.xlsx
+++ b/Luban/Datas/FGUI/FGUIType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowWidth="24225" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>##</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Lobby</t>
+  </si>
+  <si>
+    <t>ZesuDemoSelect</t>
+  </si>
+  <si>
+    <t>AnimatorDemo</t>
   </si>
 </sst>
 </file>
@@ -94,15 +100,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -110,35 +116,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -146,22 +132,22 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -169,7 +155,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -177,22 +184,23 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -200,7 +208,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -208,23 +216,43 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -232,29 +260,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -280,13 +286,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,13 +388,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,25 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,115 +448,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,27 +489,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -527,17 +551,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,81 +586,54 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,91 +645,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,55 +763,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1077,19 +1083,19 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="20.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.3714285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.752380952381" style="2" customWidth="1"/>
     <col min="4" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="17.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.247619047619" style="2" customWidth="1"/>
     <col min="8" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="17.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="54.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.6285714285714" style="2" customWidth="1"/>
+    <col min="11" max="11" width="54.247619047619" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1267,8 +1273,12 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="7">
+        <v>5</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1280,8 +1290,12 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>

--- a/Luban/Datas/FGUI/FGUIType.xlsx
+++ b/Luban/Datas/FGUI/FGUIType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12450"/>
+    <workbookView windowWidth="24225" windowHeight="14250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>##</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>AnimatorDemo</t>
+  </si>
+  <si>
+    <t>BattleDemo</t>
   </si>
 </sst>
 </file>
@@ -99,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -122,39 +125,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,8 +154,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,8 +186,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -205,24 +239,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,30 +262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,6 +289,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -298,7 +385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,19 +409,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,133 +457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,41 +488,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,9 +518,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,17 +581,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,7 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,127 +615,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,7 +1086,7 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1307,8 +1310,12 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
+        <v>7</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>

--- a/Luban/Datas/FGUI/FGUIType.xlsx
+++ b/Luban/Datas/FGUI/FGUIType.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>##</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>BattleDemo</t>
+  </si>
+  <si>
+    <t>HunterBattle</t>
   </si>
 </sst>
 </file>
@@ -102,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -124,19 +127,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,16 +165,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,77 +222,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,7 +244,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,13 +292,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,163 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,15 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -518,10 +512,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -553,6 +545,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,130 +615,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,7 +1089,7 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1327,8 +1330,12 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="7">
+        <v>8</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>

--- a/Luban/Datas/FGUI/FGUIType.xlsx
+++ b/Luban/Datas/FGUI/FGUIType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="14250"/>
+    <workbookView windowWidth="24225" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>##</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>HunterBattle</t>
+  </si>
+  <si>
+    <t>BulePrintStore</t>
   </si>
 </sst>
 </file>
@@ -106,9 +109,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -128,7 +131,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,9 +183,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,32 +252,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,57 +273,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -292,25 +295,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,151 +457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,76 +498,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,12 +530,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,130 +618,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1092,7 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1347,8 +1350,12 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
